--- a/Dokumentation/TimeRecordings.xlsx
+++ b/Dokumentation/TimeRecordings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\digital-commissioning-tool\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A492BA4-B8C4-49D9-B4DE-54DEA1557E56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7BCF5F-3B2C-4BAB-9847-4DCBA2466772}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>Datum</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Sprint planning Meeting</t>
   </si>
   <si>
-    <t xml:space="preserve">Planung des zweiten Sprints </t>
-  </si>
-  <si>
     <t>Mittwoch, 11.11.2020</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>Sonntag, 10.01.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Planung des dritten Sprints </t>
-  </si>
-  <si>
     <t>Weekly Scrum (Sprint 3)</t>
   </si>
   <si>
@@ -212,22 +206,49 @@
     <t>Lifecycle Architecture</t>
   </si>
   <si>
-    <t xml:space="preserve">Planung des vierten Sprints </t>
-  </si>
-  <si>
     <t>Weekly Scrum (Sprint 4)</t>
   </si>
   <si>
     <t>Vorbereitungen für Sprint Review</t>
   </si>
   <si>
-    <t xml:space="preserve">Planung des finalen Sprints </t>
-  </si>
-  <si>
     <t>Weekly Scrum (Sprint 5)</t>
   </si>
   <si>
     <t>Besprechung was fertig gestellt wurde und besprechen von Problemen</t>
+  </si>
+  <si>
+    <t>Scrum Meeting(Sprint 5)</t>
+  </si>
+  <si>
+    <t>Lösen der letzten Probleme und Vorbereitungen für den Sprint Review</t>
+  </si>
+  <si>
+    <t>Mitwoch, 13.01.2021</t>
+  </si>
+  <si>
+    <t>Sprint Review (Initial Operational Capability)</t>
+  </si>
+  <si>
+    <t>Donnerstag, 14.01.2021</t>
+  </si>
+  <si>
+    <t>Sprint Retrospective</t>
+  </si>
+  <si>
+    <t>Planung des vierten Sprints und Retrospective abgeschlossener Sprint</t>
+  </si>
+  <si>
+    <t>Planung des dritten Sprints  und Retrospective abgeschlossener Sprint</t>
+  </si>
+  <si>
+    <t>Planung des zweiten Sprints  und Retrospective abgeschlossener Sprint</t>
+  </si>
+  <si>
+    <t>Planung des finalen Sprints  und Retrospective abgeschlossener Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Retrospective des abgeschlossenem Sprints</t>
   </si>
 </sst>
 </file>
@@ -589,15 +610,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -665,7 +686,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>14</v>
@@ -735,7 +756,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>24</v>
@@ -743,13 +764,13 @@
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6">
         <v>6.25E-2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>24</v>
@@ -780,18 +801,18 @@
         <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>24</v>
@@ -799,13 +820,13 @@
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6">
         <v>6.25E-2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>24</v>
@@ -813,7 +834,7 @@
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6">
         <v>4.1666666666666664E-2</v>
@@ -827,7 +848,7 @@
     </row>
     <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6">
         <v>8.3333333333333329E-2</v>
@@ -836,32 +857,32 @@
         <v>30</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>24</v>
@@ -869,13 +890,13 @@
     </row>
     <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6">
         <v>6.25E-2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>24</v>
@@ -883,27 +904,27 @@
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>28</v>
@@ -911,7 +932,7 @@
     </row>
     <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="6">
         <v>8.3333333333333329E-2</v>
@@ -920,18 +941,18 @@
         <v>30</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="6">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>24</v>
@@ -939,13 +960,13 @@
     </row>
     <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="6">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>24</v>
@@ -953,21 +974,21 @@
     </row>
     <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="6">
         <v>4.1666666666666664E-2</v>
@@ -981,7 +1002,7 @@
     </row>
     <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="6">
         <v>8.3333333333333329E-2</v>
@@ -990,18 +1011,18 @@
         <v>30</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="6">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>24</v>
@@ -1009,13 +1030,13 @@
     </row>
     <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="6">
         <v>6.25E-2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>24</v>
@@ -1023,13 +1044,13 @@
     </row>
     <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="6">
         <v>6.25E-2</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>24</v>
@@ -1037,51 +1058,73 @@
     </row>
     <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="6">
         <v>6.25E-2</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
